--- a/comorbidity matching.xlsx
+++ b/comorbidity matching.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20386"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucasgm\Documents\TCC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7365722e09ffdd75/Documentos/PUC 22.1/TCC/Clustering-COVID-19-hospital-admissions-considering-semantics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57CD25B-5DA8-45C1-BC23-E550BC70FC0B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="13_ncr:1_{A57CD25B-5DA8-45C1-BC23-E550BC70FC0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C5E4BA0-7B0D-7A42-836A-F051E9793FDD}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="4350" windowHeight="2550" activeTab="1" xr2:uid="{68753654-8F04-4F60-8B2F-C48CB6E4376F}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="31640" windowHeight="19660" activeTab="1" xr2:uid="{68753654-8F04-4F60-8B2F-C48CB6E4376F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,16 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -751,12 +761,6 @@
     <t>DOID:10283</t>
   </si>
   <si>
-    <t>columns</t>
-  </si>
-  <si>
-    <t>words</t>
-  </si>
-  <si>
     <t>DOID NAME</t>
   </si>
   <si>
@@ -770,6 +774,12 @@
   </si>
   <si>
     <t>]</t>
+  </si>
+  <si>
+    <t>Column in SIVEP-Gripe</t>
+  </si>
+  <si>
+    <t>words in SIVEP-Gripe</t>
   </si>
 </sst>
 </file>
@@ -1025,15 +1035,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1067,6 +1068,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1085,7 +1095,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1387,18 +1397,18 @@
       <selection activeCell="A2" activeCellId="1" sqref="D2:E12 A2:A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="35.85546875" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="35.83203125" customWidth="1"/>
     <col min="3" max="3" width="49" customWidth="1"/>
-    <col min="4" max="4" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.42578125" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="35.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.5" customWidth="1"/>
+    <col min="6" max="6" width="26.1640625" customWidth="1"/>
+    <col min="7" max="7" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1415,7 +1425,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1432,7 +1442,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
@@ -1449,7 +1459,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
@@ -1466,7 +1476,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
@@ -1483,7 +1493,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
@@ -1500,7 +1510,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
@@ -1520,7 +1530,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
@@ -1537,7 +1547,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
@@ -1554,7 +1564,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>14</v>
       </c>
@@ -1571,7 +1581,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>15</v>
       </c>
@@ -1588,7 +1598,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>27</v>
       </c>
@@ -1605,7 +1615,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>16</v>
       </c>
@@ -1616,7 +1626,7 @@
       <c r="D13" s="7"/>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="11"/>
       <c r="C14" s="16" t="s">
@@ -1625,21 +1635,21 @@
       <c r="D14" s="11"/>
       <c r="E14" s="12"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="17"/>
       <c r="B15" s="18"/>
       <c r="C15" s="19"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="17"/>
       <c r="B16" s="18"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C17" s="3"/>
       <c r="D17" t="s">
         <v>154</v>
@@ -1657,7 +1667,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
         <v>163</v>
       </c>
@@ -1683,7 +1693,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
         <v>155</v>
       </c>
@@ -1706,7 +1716,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
         <v>234</v>
       </c>
@@ -1726,7 +1736,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D21" t="s">
         <v>157</v>
       </c>
@@ -1740,7 +1750,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D22" t="s">
         <v>234</v>
       </c>
@@ -1760,7 +1770,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D23" t="s">
         <v>158</v>
       </c>
@@ -1774,7 +1784,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
         <v>42</v>
       </c>
@@ -1788,7 +1798,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D25" t="s">
         <v>236</v>
       </c>
@@ -1811,7 +1821,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D26" t="s">
         <v>162</v>
       </c>
@@ -1831,7 +1841,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
         <v>165</v>
       </c>
@@ -1851,7 +1861,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D28" t="s">
         <v>168</v>
       </c>
@@ -1865,7 +1875,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
         <v>230</v>
       </c>
@@ -1879,7 +1889,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D30" t="s">
         <v>228</v>
       </c>
@@ -1893,7 +1903,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D31" t="s">
         <v>170</v>
       </c>
@@ -1907,7 +1917,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D32" t="s">
         <v>159</v>
       </c>
@@ -1921,7 +1931,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D33" t="s">
         <v>172</v>
       </c>
@@ -1935,7 +1945,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
         <v>174</v>
       </c>
@@ -1949,7 +1959,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="35" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D35" t="s">
         <v>48</v>
       </c>
@@ -1963,7 +1973,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D36" t="s">
         <v>176</v>
       </c>
@@ -1977,7 +1987,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="37" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D37" t="s">
         <v>179</v>
       </c>
@@ -1988,7 +1998,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D38" t="s">
         <v>180</v>
       </c>
@@ -1999,7 +2009,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D39" t="s">
         <v>182</v>
       </c>
@@ -2013,7 +2023,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D40" t="s">
         <v>184</v>
       </c>
@@ -2024,7 +2034,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="41" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D41" t="s">
         <v>25</v>
       </c>
@@ -2038,7 +2048,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D42" t="s">
         <v>195</v>
       </c>
@@ -2052,7 +2062,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="43" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D43" t="s">
         <v>187</v>
       </c>
@@ -2066,7 +2076,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="44" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D44" t="s">
         <v>188</v>
       </c>
@@ -2077,7 +2087,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="45" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D45" t="s">
         <v>189</v>
       </c>
@@ -2091,7 +2101,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="46" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D46" t="s">
         <v>199</v>
       </c>
@@ -2102,7 +2112,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="47" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D47" t="s">
         <v>207</v>
       </c>
@@ -2116,7 +2126,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="48" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D48" t="s">
         <v>193</v>
       </c>
@@ -2130,7 +2140,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="49" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D49" t="s">
         <v>191</v>
       </c>
@@ -2141,7 +2151,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="50" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D50" t="s">
         <v>202</v>
       </c>
@@ -2152,12 +2162,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="51" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:7" x14ac:dyDescent="0.2">
       <c r="F51" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="52" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D52" t="s">
         <v>222</v>
       </c>
@@ -2171,7 +2181,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="53" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D53" t="s">
         <v>201</v>
       </c>
@@ -2185,7 +2195,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="54" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D54" t="s">
         <v>197</v>
       </c>
@@ -2199,7 +2209,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="55" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D55" t="s">
         <v>220</v>
       </c>
@@ -2210,7 +2220,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="56" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D56" t="s">
         <v>41</v>
       </c>
@@ -2221,7 +2231,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="57" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D57" t="s">
         <v>203</v>
       </c>
@@ -2232,7 +2242,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="58" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D58" t="s">
         <v>217</v>
       </c>
@@ -2243,7 +2253,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="59" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D59" t="s">
         <v>218</v>
       </c>
@@ -2254,7 +2264,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="60" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D60" t="s">
         <v>209</v>
       </c>
@@ -2265,7 +2275,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="61" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D61" t="s">
         <v>211</v>
       </c>
@@ -2276,7 +2286,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="62" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D62" t="s">
         <v>51</v>
       </c>
@@ -2287,7 +2297,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D63" t="s">
         <v>223</v>
       </c>
@@ -2298,7 +2308,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="64" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D64" t="s">
         <v>225</v>
       </c>
@@ -2309,7 +2319,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="65" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D65" s="20" t="s">
         <v>215</v>
       </c>
@@ -2320,7 +2330,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="66" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D66" t="s">
         <v>227</v>
       </c>
@@ -2331,7 +2341,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="67" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D67" t="s">
         <v>205</v>
       </c>
@@ -2342,12 +2352,12 @@
         <v>153</v>
       </c>
     </row>
-    <row r="80" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:8" x14ac:dyDescent="0.2">
       <c r="H80" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="81" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H81" s="7"/>
     </row>
   </sheetData>
@@ -2360,31 +2370,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72CC9B6E-6E90-48D6-A481-FC78F654A72E}">
   <dimension ref="H9:T62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K69" sqref="K69"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
-    <col min="8" max="8" width="46.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" customWidth="1"/>
-    <col min="11" max="11" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" customWidth="1"/>
+    <col min="8" max="8" width="46.5" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.33203125" customWidth="1"/>
+    <col min="12" max="12" width="19.5" customWidth="1"/>
+    <col min="13" max="13" width="16.6640625" customWidth="1"/>
     <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="78.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="78.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="8:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="8:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Q9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="R9" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="S9" t="s">
         <v>46</v>
@@ -2393,324 +2403,324 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="8:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H10" s="24" t="s">
+    <row r="10" spans="8:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H10" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="K10" s="32" t="s">
+        <v>247</v>
+      </c>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="31" t="s">
         <v>243</v>
       </c>
-      <c r="I10" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="J10" s="24" t="s">
-        <v>241</v>
-      </c>
-      <c r="K10" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="34" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="11" spans="8:20" x14ac:dyDescent="0.25">
-      <c r="H11" s="25" t="s">
+    </row>
+    <row r="11" spans="8:20" x14ac:dyDescent="0.2">
+      <c r="H11" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="28" t="s">
+      <c r="I11" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="J11" s="25" t="s">
+      <c r="J11" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="30" t="s">
+      <c r="K11" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="L11" s="28" t="s">
+      <c r="L11" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="31"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="28"/>
       <c r="Q11" t="str">
         <f>_xlfn.CONCAT(":","[","""",K11,"""",",","""",L11,"""",",","""",M11,"""",",","""",N11,"""",",","""",O11,"""",",","""",P11,"""","]")</f>
         <v>:["CARDIOPATA","CARDIOPATIA","","","",""]</v>
       </c>
     </row>
-    <row r="12" spans="8:20" x14ac:dyDescent="0.25">
-      <c r="H12" s="25" t="s">
+    <row r="12" spans="8:20" x14ac:dyDescent="0.2">
+      <c r="H12" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="28" t="s">
+      <c r="I12" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="J12" s="25" t="s">
+      <c r="J12" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="30"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="31"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="28"/>
       <c r="Q12" t="str">
         <f t="shared" ref="Q12:Q62" si="0">_xlfn.CONCAT(":","[","""",K12,"""",",","""",L12,"""",",","""",M12,"""",",","""",N12,"""",",","""",O12,"""",",","""",P12,"""","]")</f>
         <v>:["","","","","",""]</v>
       </c>
     </row>
-    <row r="13" spans="8:20" x14ac:dyDescent="0.25">
-      <c r="H13" s="25" t="s">
+    <row r="13" spans="8:20" x14ac:dyDescent="0.2">
+      <c r="H13" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="I13" s="28" t="s">
+      <c r="I13" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="J13" s="25" t="s">
+      <c r="J13" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="K13" s="30"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="31"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="28"/>
       <c r="Q13" t="str">
         <f t="shared" si="0"/>
         <v>:["","","","","",""]</v>
       </c>
     </row>
-    <row r="14" spans="8:20" x14ac:dyDescent="0.25">
-      <c r="H14" s="25" t="s">
+    <row r="14" spans="8:20" x14ac:dyDescent="0.2">
+      <c r="H14" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="28" t="s">
+      <c r="I14" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="J14" s="25" t="s">
+      <c r="J14" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="K14" s="30"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="31"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="28"/>
       <c r="Q14" t="str">
         <f t="shared" si="0"/>
         <v>:["","","","","",""]</v>
       </c>
     </row>
-    <row r="15" spans="8:20" x14ac:dyDescent="0.25">
-      <c r="H15" s="25" t="s">
+    <row r="15" spans="8:20" x14ac:dyDescent="0.2">
+      <c r="H15" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="I15" s="28" t="s">
+      <c r="I15" s="25" t="s">
         <v>233</v>
       </c>
-      <c r="J15" s="25" t="s">
+      <c r="J15" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="K15" s="30" t="s">
+      <c r="K15" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="31"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="28"/>
       <c r="Q15" t="str">
         <f t="shared" si="0"/>
         <v>:["ASMA","","","","",""]</v>
       </c>
     </row>
-    <row r="16" spans="8:20" x14ac:dyDescent="0.25">
-      <c r="H16" s="25" t="s">
+    <row r="16" spans="8:20" x14ac:dyDescent="0.2">
+      <c r="H16" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="I16" s="28" t="s">
+      <c r="I16" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="J16" s="25" t="s">
+      <c r="J16" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="K16" s="30" t="s">
+      <c r="K16" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="L16" s="28" t="s">
+      <c r="L16" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="31"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="28"/>
       <c r="Q16" t="str">
         <f t="shared" si="0"/>
         <v>:["DM"," DM","","","",""]</v>
       </c>
     </row>
-    <row r="17" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="H17" s="25" t="s">
+    <row r="17" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H17" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="I17" s="28" t="s">
+      <c r="I17" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="J17" s="25" t="s">
+      <c r="J17" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="K17" s="30"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="31"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="28"/>
       <c r="Q17" t="str">
         <f t="shared" si="0"/>
         <v>:["","","","","",""]</v>
       </c>
     </row>
-    <row r="18" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="H18" s="25" t="s">
+    <row r="18" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H18" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="I18" s="28" t="s">
+      <c r="I18" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="J18" s="25" t="s">
+      <c r="J18" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="K18" s="30"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="31"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="28"/>
       <c r="Q18" t="str">
         <f t="shared" si="0"/>
         <v>:["","","","","",""]</v>
       </c>
     </row>
-    <row r="19" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="H19" s="25" t="s">
+    <row r="19" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H19" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="I19" s="28" t="s">
+      <c r="I19" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="J19" s="25" t="s">
+      <c r="J19" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="K19" s="30" t="s">
+      <c r="K19" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="31"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="28"/>
       <c r="Q19" t="str">
         <f t="shared" si="0"/>
         <v>:["DRC","","","","",""]</v>
       </c>
     </row>
-    <row r="20" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="H20" s="25" t="s">
+    <row r="20" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H20" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="I20" s="28" t="s">
+      <c r="I20" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="J20" s="25" t="s">
+      <c r="J20" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="K20" s="30" t="s">
+      <c r="K20" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="L20" s="28" t="s">
+      <c r="L20" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="31"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="28"/>
       <c r="Q20" t="str">
         <f t="shared" si="0"/>
         <v>:["OBESIDADE"," OBESIDADE","","","",""]</v>
       </c>
     </row>
-    <row r="21" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="H21" s="25" t="s">
+    <row r="21" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H21" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="I21" s="28" t="s">
+      <c r="I21" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="J21" s="25" t="s">
+      <c r="J21" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="K21" s="30"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="31"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="28"/>
       <c r="Q21" t="str">
         <f t="shared" si="0"/>
         <v>:["","","","","",""]</v>
       </c>
     </row>
-    <row r="22" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="H22" s="25" t="s">
+    <row r="22" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H22" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="I22" s="28" t="s">
+      <c r="I22" s="25" t="s">
         <v>238</v>
       </c>
-      <c r="J22" s="25"/>
-      <c r="K22" s="30" t="s">
+      <c r="J22" s="22"/>
+      <c r="K22" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="L22" s="28" t="s">
+      <c r="L22" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="M22" s="28" t="s">
+      <c r="M22" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="31"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="28"/>
       <c r="Q22" t="str">
         <f t="shared" si="0"/>
         <v>:["DPOC"," DPOC","DPOC ","","",""]</v>
       </c>
     </row>
-    <row r="23" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="H23" s="25" t="s">
+    <row r="23" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H23" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="I23" s="28" t="s">
+      <c r="I23" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="J23" s="25"/>
-      <c r="K23" s="30" t="s">
+      <c r="J23" s="22"/>
+      <c r="K23" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="L23" s="28" t="s">
+      <c r="L23" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="M23" s="28" t="s">
+      <c r="M23" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="N23" s="28" t="s">
+      <c r="N23" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="O23" s="28" t="s">
+      <c r="O23" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="P23" s="31" t="s">
+      <c r="P23" s="28" t="s">
         <v>149</v>
       </c>
       <c r="Q23" t="str">
@@ -2718,890 +2728,890 @@
         <v>:["DLP"," DLP","DISLIPIDEMIA"," DISLIPIDEMIA","DSLP"," DSLP"]</v>
       </c>
     </row>
-    <row r="24" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="H24" s="25" t="s">
+    <row r="24" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H24" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="I24" s="28" t="s">
+      <c r="I24" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="J24" s="25"/>
-      <c r="K24" s="30" t="s">
+      <c r="J24" s="22"/>
+      <c r="K24" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="L24" s="28" t="s">
+      <c r="L24" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="M24" s="28" t="s">
+      <c r="M24" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="N24" s="28" t="s">
+      <c r="N24" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="O24" s="28" t="s">
+      <c r="O24" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="P24" s="31"/>
+      <c r="P24" s="28"/>
       <c r="Q24" t="str">
         <f t="shared" si="0"/>
         <v>:["HIPOTIREOIDISMO"," HIPOTIREOIDISMO"," HIPOTIROIDISMO","HIPOTIREODISMO","HIPOTIROIDISMO",""]</v>
       </c>
     </row>
-    <row r="25" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="H25" s="25" t="s">
+    <row r="25" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H25" s="22" t="s">
         <v>234</v>
       </c>
-      <c r="I25" s="28" t="s">
+      <c r="I25" s="25" t="s">
         <v>235</v>
       </c>
-      <c r="J25" s="25"/>
-      <c r="K25" s="30" t="s">
+      <c r="J25" s="22"/>
+      <c r="K25" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="L25" s="28" t="s">
+      <c r="L25" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="M25" s="28" t="s">
+      <c r="M25" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="N25" s="28" t="s">
+      <c r="N25" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="O25" s="28"/>
-      <c r="P25" s="31"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="28"/>
       <c r="Q25" t="str">
         <f t="shared" si="0"/>
         <v>:["TABAGISTA"," TABAGISTA","TABAGISMO"," TABAGISMO","",""]</v>
       </c>
     </row>
-    <row r="26" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="H26" s="25" t="s">
+    <row r="26" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H26" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="I26" s="28" t="s">
+      <c r="I26" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="J26" s="25"/>
-      <c r="K26" s="30" t="s">
+      <c r="J26" s="22"/>
+      <c r="K26" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="L26" s="28" t="s">
+      <c r="L26" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="28"/>
-      <c r="P26" s="31"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="28"/>
       <c r="Q26" t="str">
         <f t="shared" si="0"/>
         <v>:["DEPRESSAO"," DEPRESSAO","","","",""]</v>
       </c>
     </row>
-    <row r="27" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="H27" s="25" t="s">
+    <row r="27" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H27" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="I27" s="28" t="s">
+      <c r="I27" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="J27" s="25"/>
-      <c r="K27" s="30" t="s">
+      <c r="J27" s="22"/>
+      <c r="K27" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="L27" s="28" t="s">
+      <c r="L27" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="M27" s="28"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="31"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="28"/>
       <c r="Q27" t="str">
         <f t="shared" si="0"/>
         <v>:["ALZHEIMER"," ALZHEIMER","","","",""]</v>
       </c>
     </row>
-    <row r="28" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="H28" s="25" t="s">
+    <row r="28" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H28" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="I28" s="28" t="s">
+      <c r="I28" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="J28" s="25"/>
-      <c r="K28" s="30" t="s">
+      <c r="J28" s="22"/>
+      <c r="K28" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="L28" s="28" t="s">
+      <c r="L28" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="M28" s="28" t="s">
+      <c r="M28" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="N28" s="28" t="s">
+      <c r="N28" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="O28" s="28" t="s">
+      <c r="O28" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="P28" s="31"/>
+      <c r="P28" s="28"/>
       <c r="Q28" t="str">
         <f t="shared" si="0"/>
         <v>:["AVC"," AVC","AVC PREVIO","AVE","AVCI",""]</v>
       </c>
     </row>
-    <row r="29" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="H29" s="25" t="s">
+    <row r="29" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H29" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="I29" s="28" t="s">
+      <c r="I29" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="J29" s="25"/>
-      <c r="K29" s="30" t="s">
+      <c r="J29" s="22"/>
+      <c r="K29" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="L29" s="28" t="s">
+      <c r="L29" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="M29" s="28" t="s">
+      <c r="M29" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="N29" s="28" t="s">
+      <c r="N29" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="O29" s="28"/>
-      <c r="P29" s="31"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="28"/>
       <c r="Q29" t="str">
         <f t="shared" si="0"/>
         <v>:["ICC"," ICC","IC"," IC","",""]</v>
       </c>
     </row>
-    <row r="30" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="H30" s="25" t="s">
+    <row r="30" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H30" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="I30" s="28" t="s">
+      <c r="I30" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="J30" s="25"/>
-      <c r="K30" s="30" t="s">
+      <c r="J30" s="22"/>
+      <c r="K30" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="L30" s="28" t="s">
+      <c r="L30" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="M30" s="28" t="s">
+      <c r="M30" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="N30" s="28" t="s">
+      <c r="N30" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="O30" s="28"/>
-      <c r="P30" s="31"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="28"/>
       <c r="Q30" t="str">
         <f t="shared" si="0"/>
         <v>:["ETILISTA","ETILISMO"," ETILISTA"," ETILISMO","",""]</v>
       </c>
     </row>
-    <row r="31" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="H31" s="25" t="s">
+    <row r="31" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H31" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="I31" s="28" t="s">
+      <c r="I31" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="J31" s="25"/>
-      <c r="K31" s="30" t="s">
+      <c r="J31" s="22"/>
+      <c r="K31" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="L31" s="28" t="s">
+      <c r="L31" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="M31" s="28"/>
-      <c r="N31" s="28"/>
-      <c r="O31" s="28"/>
-      <c r="P31" s="31"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="25"/>
+      <c r="P31" s="28"/>
       <c r="Q31" t="str">
         <f t="shared" si="0"/>
         <v>:["HIPERTENSAO","HIPERTENSO","","","",""]</v>
       </c>
     </row>
-    <row r="32" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="H32" s="25" t="s">
+    <row r="32" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H32" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="I32" s="28" t="s">
+      <c r="I32" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="J32" s="25"/>
-      <c r="K32" s="30" t="s">
+      <c r="J32" s="22"/>
+      <c r="K32" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="L32" s="28" t="s">
+      <c r="L32" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="M32" s="28"/>
-      <c r="N32" s="28"/>
-      <c r="O32" s="28"/>
-      <c r="P32" s="31"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="25"/>
+      <c r="O32" s="25"/>
+      <c r="P32" s="28"/>
       <c r="Q32" t="str">
         <f t="shared" si="0"/>
         <v>:["HPB"," HPB","","","",""]</v>
       </c>
     </row>
-    <row r="33" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="H33" s="25" t="s">
+    <row r="33" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H33" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="I33" s="28" t="s">
+      <c r="I33" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="J33" s="25"/>
-      <c r="K33" s="30" t="s">
+      <c r="J33" s="22"/>
+      <c r="K33" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="L33" s="28" t="s">
+      <c r="L33" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="M33" s="28"/>
-      <c r="N33" s="28"/>
-      <c r="O33" s="28"/>
-      <c r="P33" s="31"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="25"/>
+      <c r="O33" s="25"/>
+      <c r="P33" s="28"/>
       <c r="Q33" t="str">
         <f t="shared" si="0"/>
         <v>:["ANSIEDADE"," ANSIEDADE","","","",""]</v>
       </c>
     </row>
-    <row r="34" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="H34" s="25" t="s">
+    <row r="34" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H34" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="I34" s="28" t="s">
+      <c r="I34" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="J34" s="25"/>
-      <c r="K34" s="30" t="s">
+      <c r="J34" s="22"/>
+      <c r="K34" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="L34" s="28" t="s">
+      <c r="L34" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="M34" s="28"/>
-      <c r="N34" s="28"/>
-      <c r="O34" s="28"/>
-      <c r="P34" s="31"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="25"/>
+      <c r="O34" s="25"/>
+      <c r="P34" s="28"/>
       <c r="Q34" t="str">
         <f t="shared" si="0"/>
         <v>:["EPILEPSIA"," EPILEPSIA","","","",""]</v>
       </c>
     </row>
-    <row r="35" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="H35" s="25" t="s">
+    <row r="35" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H35" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="I35" s="28" t="s">
+      <c r="I35" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="J35" s="25"/>
-      <c r="K35" s="30" t="s">
+      <c r="J35" s="22"/>
+      <c r="K35" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="L35" s="28" t="s">
+      <c r="L35" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="M35" s="28"/>
-      <c r="N35" s="28"/>
-      <c r="O35" s="28"/>
-      <c r="P35" s="31"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="25"/>
+      <c r="O35" s="25"/>
+      <c r="P35" s="28"/>
       <c r="Q35" t="str">
         <f t="shared" si="0"/>
         <v>:["PARKINSON"," PARKINSON","","","",""]</v>
       </c>
     </row>
-    <row r="36" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="H36" s="25" t="s">
+    <row r="36" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H36" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="I36" s="28" t="s">
+      <c r="I36" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="J36" s="25"/>
-      <c r="K36" s="30" t="s">
+      <c r="J36" s="22"/>
+      <c r="K36" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="L36" s="28" t="s">
+      <c r="L36" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="M36" s="28"/>
-      <c r="N36" s="28"/>
-      <c r="O36" s="28"/>
-      <c r="P36" s="31"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="25"/>
+      <c r="O36" s="25"/>
+      <c r="P36" s="28"/>
       <c r="Q36" t="str">
         <f t="shared" si="0"/>
         <v>:["IAM"," IAM","","","",""]</v>
       </c>
     </row>
-    <row r="37" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="H37" s="25" t="s">
+    <row r="37" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H37" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="I37" s="28" t="s">
+      <c r="I37" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="J37" s="25"/>
-      <c r="K37" s="30" t="s">
+      <c r="J37" s="22"/>
+      <c r="K37" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="L37" s="28" t="s">
+      <c r="L37" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="M37" s="28"/>
-      <c r="N37" s="28"/>
-      <c r="O37" s="28"/>
-      <c r="P37" s="31"/>
+      <c r="M37" s="25"/>
+      <c r="N37" s="25"/>
+      <c r="O37" s="25"/>
+      <c r="P37" s="28"/>
       <c r="Q37" t="str">
         <f t="shared" si="0"/>
         <v>:["DEMENCIA"," DEMENCIA","","","",""]</v>
       </c>
     </row>
-    <row r="38" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="H38" s="25" t="s">
+    <row r="38" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H38" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="I38" s="28" t="s">
+      <c r="I38" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="J38" s="25"/>
-      <c r="K38" s="30" t="s">
+      <c r="J38" s="22"/>
+      <c r="K38" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="L38" s="28" t="s">
+      <c r="L38" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="M38" s="28"/>
-      <c r="N38" s="28"/>
-      <c r="O38" s="28"/>
-      <c r="P38" s="31"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="25"/>
+      <c r="O38" s="25"/>
+      <c r="P38" s="28"/>
       <c r="Q38" t="str">
         <f t="shared" si="0"/>
         <v>:["DAC"," DAC","","","",""]</v>
       </c>
     </row>
-    <row r="39" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="H39" s="25" t="s">
+    <row r="39" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H39" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="I39" s="28" t="s">
+      <c r="I39" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="J39" s="25"/>
-      <c r="K39" s="30" t="s">
+      <c r="J39" s="22"/>
+      <c r="K39" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="L39" s="28"/>
-      <c r="M39" s="28"/>
-      <c r="N39" s="28"/>
-      <c r="O39" s="28"/>
-      <c r="P39" s="31"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="25"/>
+      <c r="N39" s="25"/>
+      <c r="O39" s="25"/>
+      <c r="P39" s="28"/>
       <c r="Q39" t="str">
         <f t="shared" si="0"/>
         <v>:["HIV","","","","",""]</v>
       </c>
     </row>
-    <row r="40" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="H40" s="25" t="s">
+    <row r="40" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H40" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="I40" s="28" t="s">
+      <c r="I40" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="J40" s="25"/>
-      <c r="K40" s="30" t="s">
+      <c r="J40" s="22"/>
+      <c r="K40" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="L40" s="28"/>
-      <c r="M40" s="28"/>
-      <c r="N40" s="28"/>
-      <c r="O40" s="28"/>
-      <c r="P40" s="31"/>
+      <c r="L40" s="25"/>
+      <c r="M40" s="25"/>
+      <c r="N40" s="25"/>
+      <c r="O40" s="25"/>
+      <c r="P40" s="28"/>
       <c r="Q40" t="str">
         <f t="shared" si="0"/>
         <v>:["FIBROMIALGIA","","","","",""]</v>
       </c>
     </row>
-    <row r="41" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="H41" s="25" t="s">
+    <row r="41" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H41" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="I41" s="28" t="s">
+      <c r="I41" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="J41" s="25"/>
-      <c r="K41" s="30" t="s">
+      <c r="J41" s="22"/>
+      <c r="K41" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="L41" s="28" t="s">
+      <c r="L41" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="M41" s="28"/>
-      <c r="N41" s="28"/>
-      <c r="O41" s="28"/>
-      <c r="P41" s="31"/>
+      <c r="M41" s="25"/>
+      <c r="N41" s="25"/>
+      <c r="O41" s="25"/>
+      <c r="P41" s="28"/>
       <c r="Q41" t="str">
         <f t="shared" si="0"/>
         <v>:["ANEMIA"," ANEMIA","","","",""]</v>
       </c>
     </row>
-    <row r="42" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="H42" s="25" t="s">
+    <row r="42" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H42" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="I42" s="28" t="s">
+      <c r="I42" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="J42" s="25"/>
-      <c r="K42" s="30" t="s">
+      <c r="J42" s="22"/>
+      <c r="K42" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="L42" s="28"/>
-      <c r="M42" s="28"/>
-      <c r="N42" s="28"/>
-      <c r="O42" s="28"/>
-      <c r="P42" s="31"/>
+      <c r="L42" s="25"/>
+      <c r="M42" s="25"/>
+      <c r="N42" s="25"/>
+      <c r="O42" s="25"/>
+      <c r="P42" s="28"/>
       <c r="Q42" t="str">
         <f t="shared" si="0"/>
         <v>:["ESQUIZOFRENIA","","","","",""]</v>
       </c>
     </row>
-    <row r="43" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="H43" s="25" t="s">
+    <row r="43" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H43" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="I43" s="28" t="s">
+      <c r="I43" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="J43" s="25"/>
-      <c r="K43" s="30" t="s">
+      <c r="J43" s="22"/>
+      <c r="K43" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="L43" s="28" t="s">
+      <c r="L43" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="M43" s="28"/>
-      <c r="N43" s="28"/>
-      <c r="O43" s="28"/>
-      <c r="P43" s="31"/>
+      <c r="M43" s="25"/>
+      <c r="N43" s="25"/>
+      <c r="O43" s="25"/>
+      <c r="P43" s="28"/>
       <c r="Q43" t="str">
         <f t="shared" si="0"/>
         <v>:["ARRITMIA"," ARRITMIA","","","",""]</v>
       </c>
     </row>
-    <row r="44" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="H44" s="25" t="s">
+    <row r="44" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H44" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="I44" s="28" t="s">
+      <c r="I44" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="J44" s="25"/>
-      <c r="K44" s="30" t="s">
+      <c r="J44" s="22"/>
+      <c r="K44" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="L44" s="28" t="s">
+      <c r="L44" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="M44" s="28"/>
-      <c r="N44" s="28"/>
-      <c r="O44" s="28"/>
-      <c r="P44" s="31"/>
+      <c r="M44" s="25"/>
+      <c r="N44" s="25"/>
+      <c r="O44" s="25"/>
+      <c r="P44" s="28"/>
       <c r="Q44" t="str">
         <f t="shared" si="0"/>
         <v>:["GLAUCOMA"," GLAUCOMA","","","",""]</v>
       </c>
     </row>
-    <row r="45" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="H45" s="25" t="s">
+    <row r="45" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H45" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="I45" s="28" t="s">
+      <c r="I45" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="J45" s="25"/>
-      <c r="K45" s="30" t="s">
+      <c r="J45" s="22"/>
+      <c r="K45" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="L45" s="28"/>
-      <c r="M45" s="28"/>
-      <c r="N45" s="28"/>
-      <c r="O45" s="28"/>
-      <c r="P45" s="31"/>
+      <c r="L45" s="25"/>
+      <c r="M45" s="25"/>
+      <c r="N45" s="25"/>
+      <c r="O45" s="25"/>
+      <c r="P45" s="28"/>
       <c r="Q45" t="str">
         <f t="shared" si="0"/>
         <v>:["BRONQUITE","","","","",""]</v>
       </c>
     </row>
-    <row r="46" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="H46" s="25" t="s">
+    <row r="46" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H46" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="I46" s="28" t="s">
+      <c r="I46" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="J46" s="25"/>
-      <c r="K46" s="30" t="s">
+      <c r="J46" s="22"/>
+      <c r="K46" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="L46" s="28" t="s">
+      <c r="L46" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="M46" s="28"/>
-      <c r="N46" s="28"/>
-      <c r="O46" s="28"/>
-      <c r="P46" s="31"/>
+      <c r="M46" s="25"/>
+      <c r="N46" s="25"/>
+      <c r="O46" s="25"/>
+      <c r="P46" s="28"/>
       <c r="Q46" t="str">
         <f t="shared" si="0"/>
         <v>:["GOTA"," GOTA","","","",""]</v>
       </c>
     </row>
-    <row r="47" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="H47" s="25" t="s">
+    <row r="47" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H47" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="I47" s="28" t="s">
+      <c r="I47" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="J47" s="25"/>
-      <c r="K47" s="30" t="s">
+      <c r="J47" s="22"/>
+      <c r="K47" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="L47" s="28"/>
-      <c r="M47" s="28"/>
-      <c r="N47" s="28"/>
-      <c r="O47" s="28"/>
-      <c r="P47" s="31"/>
+      <c r="L47" s="25"/>
+      <c r="M47" s="25"/>
+      <c r="N47" s="25"/>
+      <c r="O47" s="25"/>
+      <c r="P47" s="28"/>
       <c r="Q47" t="str">
         <f t="shared" si="0"/>
         <v>:["ARTRITE","","","","",""]</v>
       </c>
     </row>
-    <row r="48" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="H48" s="25" t="s">
+    <row r="48" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H48" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="I48" s="28" t="s">
+      <c r="I48" s="25" t="s">
         <v>208</v>
       </c>
-      <c r="J48" s="25"/>
-      <c r="K48" s="30" t="s">
+      <c r="J48" s="22"/>
+      <c r="K48" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="L48" s="28" t="s">
+      <c r="L48" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="M48" s="28"/>
-      <c r="N48" s="28"/>
-      <c r="O48" s="28"/>
-      <c r="P48" s="31"/>
+      <c r="M48" s="25"/>
+      <c r="N48" s="25"/>
+      <c r="O48" s="25"/>
+      <c r="P48" s="28"/>
       <c r="Q48" t="str">
         <f t="shared" si="0"/>
         <v>:["CA MAMA","CA DE MAMA","","","",""]</v>
       </c>
     </row>
-    <row r="49" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="H49" s="25" t="s">
+    <row r="49" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H49" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="I49" s="28" t="s">
+      <c r="I49" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="J49" s="25"/>
-      <c r="K49" s="30" t="s">
+      <c r="J49" s="22"/>
+      <c r="K49" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="L49" s="28" t="s">
+      <c r="L49" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="M49" s="28"/>
-      <c r="N49" s="28"/>
-      <c r="O49" s="28"/>
-      <c r="P49" s="31"/>
+      <c r="M49" s="25"/>
+      <c r="N49" s="25"/>
+      <c r="O49" s="25"/>
+      <c r="P49" s="28"/>
       <c r="Q49" t="str">
         <f t="shared" si="0"/>
         <v>:["FA"," FA","","","",""]</v>
       </c>
     </row>
-    <row r="50" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="H50" s="25" t="s">
+    <row r="50" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H50" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="I50" s="28" t="s">
+      <c r="I50" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="J50" s="25"/>
-      <c r="K50" s="30" t="s">
+      <c r="J50" s="22"/>
+      <c r="K50" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="L50" s="28"/>
-      <c r="M50" s="28"/>
-      <c r="N50" s="28"/>
-      <c r="O50" s="28"/>
-      <c r="P50" s="31"/>
+      <c r="L50" s="25"/>
+      <c r="M50" s="25"/>
+      <c r="N50" s="25"/>
+      <c r="O50" s="25"/>
+      <c r="P50" s="28"/>
       <c r="Q50" t="str">
         <f t="shared" si="0"/>
         <v>:["LUPUS","","","","",""]</v>
       </c>
     </row>
-    <row r="51" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="H51" s="25" t="s">
+    <row r="51" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H51" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="I51" s="28" t="s">
+      <c r="I51" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="J51" s="25"/>
-      <c r="K51" s="30" t="s">
+      <c r="J51" s="22"/>
+      <c r="K51" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="L51" s="28"/>
-      <c r="M51" s="28"/>
-      <c r="N51" s="28"/>
-      <c r="O51" s="28"/>
-      <c r="P51" s="31"/>
+      <c r="L51" s="25"/>
+      <c r="M51" s="25"/>
+      <c r="N51" s="25"/>
+      <c r="O51" s="25"/>
+      <c r="P51" s="28"/>
       <c r="Q51" t="str">
         <f t="shared" si="0"/>
         <v>:["OSTEOPOROSE","","","","",""]</v>
       </c>
     </row>
-    <row r="52" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="H52" s="25" t="s">
+    <row r="52" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H52" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="I52" s="28" t="s">
+      <c r="I52" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="J52" s="25"/>
-      <c r="K52" s="30" t="s">
+      <c r="J52" s="22"/>
+      <c r="K52" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="L52" s="28" t="s">
+      <c r="L52" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="M52" s="28"/>
-      <c r="N52" s="28"/>
-      <c r="O52" s="28"/>
-      <c r="P52" s="31"/>
+      <c r="M52" s="25"/>
+      <c r="N52" s="25"/>
+      <c r="O52" s="25"/>
+      <c r="P52" s="28"/>
       <c r="Q52" t="str">
         <f t="shared" si="0"/>
         <v>:["ARTROSE"," ARTROSE","","","",""]</v>
       </c>
     </row>
-    <row r="53" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="H53" s="25" t="s">
+    <row r="53" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H53" s="22" t="s">
         <v>197</v>
       </c>
-      <c r="I53" s="28" t="s">
+      <c r="I53" s="25" t="s">
         <v>240</v>
       </c>
-      <c r="J53" s="25"/>
-      <c r="K53" s="30" t="s">
+      <c r="J53" s="22"/>
+      <c r="K53" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="L53" s="28" t="s">
+      <c r="L53" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="M53" s="28"/>
-      <c r="N53" s="28"/>
-      <c r="O53" s="28"/>
-      <c r="P53" s="31"/>
+      <c r="M53" s="25"/>
+      <c r="N53" s="25"/>
+      <c r="O53" s="25"/>
+      <c r="P53" s="28"/>
       <c r="Q53" t="str">
         <f t="shared" si="0"/>
         <v>:["CA PROSTATA","CA DE PROSTATA","","","",""]</v>
       </c>
     </row>
-    <row r="54" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="H54" s="25" t="s">
+    <row r="54" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H54" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="I54" s="28" t="s">
+      <c r="I54" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="J54" s="25"/>
-      <c r="K54" s="30" t="s">
+      <c r="J54" s="22"/>
+      <c r="K54" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="L54" s="28"/>
-      <c r="M54" s="28"/>
-      <c r="N54" s="28"/>
-      <c r="O54" s="28"/>
-      <c r="P54" s="31"/>
+      <c r="L54" s="25"/>
+      <c r="M54" s="25"/>
+      <c r="N54" s="25"/>
+      <c r="O54" s="25"/>
+      <c r="P54" s="28"/>
       <c r="Q54" t="str">
         <f t="shared" si="0"/>
         <v>:["NEOPLASIA","","","","",""]</v>
       </c>
     </row>
-    <row r="55" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="H55" s="25" t="s">
+    <row r="55" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H55" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="I55" s="28" t="s">
+      <c r="I55" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="J55" s="25"/>
-      <c r="K55" s="30" t="s">
+      <c r="J55" s="22"/>
+      <c r="K55" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="L55" s="28"/>
-      <c r="M55" s="28"/>
-      <c r="N55" s="28"/>
-      <c r="O55" s="28"/>
-      <c r="P55" s="31"/>
+      <c r="L55" s="25"/>
+      <c r="M55" s="25"/>
+      <c r="N55" s="25"/>
+      <c r="O55" s="25"/>
+      <c r="P55" s="28"/>
       <c r="Q55" t="str">
         <f t="shared" si="0"/>
         <v>:["GASTRITE","","","","",""]</v>
       </c>
     </row>
-    <row r="56" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="H56" s="25" t="s">
+    <row r="56" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H56" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="I56" s="28" t="s">
+      <c r="I56" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="J56" s="25"/>
-      <c r="K56" s="30" t="s">
+      <c r="J56" s="22"/>
+      <c r="K56" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="L56" s="28"/>
-      <c r="M56" s="28"/>
-      <c r="N56" s="28"/>
-      <c r="O56" s="28"/>
-      <c r="P56" s="31"/>
+      <c r="L56" s="25"/>
+      <c r="M56" s="25"/>
+      <c r="N56" s="25"/>
+      <c r="O56" s="25"/>
+      <c r="P56" s="28"/>
       <c r="Q56" t="str">
         <f t="shared" si="0"/>
         <v>:["DRGE","","","","",""]</v>
       </c>
     </row>
-    <row r="57" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="H57" s="25" t="s">
+    <row r="57" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H57" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="I57" s="28" t="s">
+      <c r="I57" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="J57" s="25"/>
-      <c r="K57" s="30" t="s">
+      <c r="J57" s="22"/>
+      <c r="K57" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="L57" s="28"/>
-      <c r="M57" s="28"/>
-      <c r="N57" s="28"/>
-      <c r="O57" s="28"/>
-      <c r="P57" s="31"/>
+      <c r="L57" s="25"/>
+      <c r="M57" s="25"/>
+      <c r="N57" s="25"/>
+      <c r="O57" s="25"/>
+      <c r="P57" s="28"/>
       <c r="Q57" t="str">
         <f t="shared" si="0"/>
         <v>:["IRA","","","","",""]</v>
       </c>
     </row>
-    <row r="58" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="H58" s="25" t="s">
+    <row r="58" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H58" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="I58" s="28" t="s">
+      <c r="I58" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="J58" s="25"/>
-      <c r="K58" s="30" t="s">
+      <c r="J58" s="22"/>
+      <c r="K58" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="L58" s="28"/>
-      <c r="M58" s="28"/>
-      <c r="N58" s="28"/>
-      <c r="O58" s="28"/>
-      <c r="P58" s="31"/>
+      <c r="L58" s="25"/>
+      <c r="M58" s="25"/>
+      <c r="N58" s="25"/>
+      <c r="O58" s="25"/>
+      <c r="P58" s="28"/>
       <c r="Q58" t="str">
         <f t="shared" si="0"/>
         <v>:["ARTRITE REUMATOIDE","","","","",""]</v>
       </c>
     </row>
-    <row r="59" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="H59" s="25" t="s">
+    <row r="59" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H59" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="I59" s="28" t="s">
+      <c r="I59" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="J59" s="25"/>
-      <c r="K59" s="30" t="s">
+      <c r="J59" s="22"/>
+      <c r="K59" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="L59" s="28"/>
-      <c r="M59" s="28"/>
-      <c r="N59" s="28"/>
-      <c r="O59" s="28"/>
-      <c r="P59" s="31"/>
+      <c r="L59" s="25"/>
+      <c r="M59" s="25"/>
+      <c r="N59" s="25"/>
+      <c r="O59" s="25"/>
+      <c r="P59" s="28"/>
       <c r="Q59" t="str">
         <f t="shared" si="0"/>
         <v>:["CHAGAS","","","","",""]</v>
       </c>
     </row>
-    <row r="60" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="H60" s="25" t="s">
+    <row r="60" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H60" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="I60" s="28" t="s">
+      <c r="I60" s="25" t="s">
         <v>224</v>
       </c>
-      <c r="J60" s="25"/>
-      <c r="K60" s="30" t="s">
+      <c r="J60" s="22"/>
+      <c r="K60" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="L60" s="28"/>
-      <c r="M60" s="28"/>
-      <c r="N60" s="28"/>
-      <c r="O60" s="28"/>
-      <c r="P60" s="31"/>
+      <c r="L60" s="25"/>
+      <c r="M60" s="25"/>
+      <c r="N60" s="25"/>
+      <c r="O60" s="25"/>
+      <c r="P60" s="28"/>
       <c r="Q60" t="str">
         <f t="shared" si="0"/>
         <v>:["DAOP","","","","",""]</v>
       </c>
     </row>
-    <row r="61" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="H61" s="25" t="s">
+    <row r="61" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H61" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="I61" s="28" t="s">
+      <c r="I61" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="J61" s="25"/>
-      <c r="K61" s="30" t="s">
+      <c r="J61" s="22"/>
+      <c r="K61" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="L61" s="28"/>
-      <c r="M61" s="28"/>
-      <c r="N61" s="28"/>
-      <c r="O61" s="28"/>
-      <c r="P61" s="31"/>
+      <c r="L61" s="25"/>
+      <c r="M61" s="25"/>
+      <c r="N61" s="25"/>
+      <c r="O61" s="25"/>
+      <c r="P61" s="28"/>
       <c r="Q61" t="str">
         <f t="shared" si="0"/>
         <v>:["TEP","","","","",""]</v>
       </c>
     </row>
-    <row r="62" spans="8:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H62" s="26" t="s">
+    <row r="62" spans="8:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H62" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="I62" s="29" t="s">
+      <c r="I62" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="J62" s="26"/>
-      <c r="K62" s="32" t="s">
+      <c r="J62" s="23"/>
+      <c r="K62" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="L62" s="29"/>
-      <c r="M62" s="29"/>
-      <c r="N62" s="29"/>
-      <c r="O62" s="29"/>
-      <c r="P62" s="33"/>
+      <c r="L62" s="26"/>
+      <c r="M62" s="26"/>
+      <c r="N62" s="26"/>
+      <c r="O62" s="26"/>
+      <c r="P62" s="30"/>
       <c r="Q62" t="str">
         <f t="shared" si="0"/>
         <v>:["LEUCEMIA","","","","",""]</v>
